--- a/data/depot/Spending Drivers - Corrections - Prison Capacity.xlsx
+++ b/data/depot/Spending Drivers - Corrections - Prison Capacity.xlsx
@@ -638,6 +638,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -664,15 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,7 +979,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,23 +993,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,76 +2606,76 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="14"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="14"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="14"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
